--- a/biology/Botanique/Probosciaceae/Probosciaceae.xlsx
+++ b/biology/Botanique/Probosciaceae/Probosciaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Probosciaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Probosciales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Proboscia, dérivé du grec προβοσκια / proboskia, « trompe d'éléphant », en référence à la valve qui se termine en forme de proboscis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Proboscia, dérivé du grec προβοσκια / proboskia, « trompe d'éléphant », en référence à la valve qui se termine en forme de proboscis.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,12 +612,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 août 2022) :
 Proboscia Sundström, 1986
 espèce type (holotype) : Proboscia alata (Brightwell) Sundström 1986
-synonyme : Rhizosolenia alata Brightwell 1858[3]</t>
+synonyme : Rhizosolenia alata Brightwell 1858</t>
         </is>
       </c>
     </row>
@@ -627,11 +647,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Probosciaceae R.W.Jordan &amp; Ligowski, 2004[2].
-Cette famille a été initialement créée en 2001 par d'autres auteurs : Probosciaceae V.A. Nikolaev &amp; D.M. Harwood in Nikolaev et al., 2001[4].
-En 2004 cette famille fut « re-érigée comme nouveau taxon, avec une diagnose en latin en accord avec les règles de la nomenclature botanique » par Richard W. Jordan (d) et Ryszard Ligowski (d)[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Probosciaceae R.W.Jordan &amp; Ligowski, 2004.
+Cette famille a été initialement créée en 2001 par d'autres auteurs : Probosciaceae V.A. Nikolaev &amp; D.M. Harwood in Nikolaev et al., 2001.
+En 2004 cette famille fut « re-érigée comme nouveau taxon, avec une diagnose en latin en accord avec les règles de la nomenclature botanique » par Richard W. Jordan (d) et Ryszard Ligowski (d).
 </t>
         </is>
       </c>
@@ -660,7 +682,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Richard W. Jordan et Ryszard Ligowski, « New Observations on Proboscia Auxospores and Validation of the Family Probosciaceae Fam. Nov. », Vie et Milieu, vol. 54, nos 2-3,‎ 2004, p. 91-103 (ISSN 0240-8759, lire en ligne)</t>
         </is>
